--- a/Compunding.xlsx
+++ b/Compunding.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\learning-excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\learning-excel-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8047FE-0D8A-4865-B6CE-6065D2E6444F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608E3E45-68BA-4420-B1E0-6720DB90657B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2E429BD7-BC5D-4EC3-A067-11C4B75E8339}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>2 Tahun target 3x</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>4 Tahun target 1x</t>
+  </si>
+  <si>
+    <t>15x</t>
+  </si>
+  <si>
+    <t>17x</t>
+  </si>
+  <si>
+    <t>20x</t>
   </si>
 </sst>
 </file>
@@ -86,7 +95,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,18 +105,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -135,12 +132,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -456,40 +453,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FA1DC7-A747-45FA-8946-FAE196DCECB3}">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="35.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
     <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="37" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="B1" s="9"/>
+      <c r="E1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="I1" s="12" t="s">
+      <c r="F1" s="9"/>
+      <c r="I1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="12"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
@@ -516,7 +513,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
+      <c r="A3" s="7">
         <f>A2*3+A2</f>
         <v>2000</v>
       </c>
@@ -525,7 +522,7 @@
         <v>32000000</v>
       </c>
       <c r="C3"/>
-      <c r="E3" s="11">
+      <c r="E3" s="7">
         <f>E2*2+E2</f>
         <v>1500</v>
       </c>
@@ -534,7 +531,7 @@
         <v>24000000</v>
       </c>
       <c r="G3"/>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <f>I2*1+I2</f>
         <v>1000</v>
       </c>
@@ -545,7 +542,7 @@
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+      <c r="A4" s="7">
         <f>A3*3+A3</f>
         <v>8000</v>
       </c>
@@ -554,7 +551,7 @@
         <v>128000000</v>
       </c>
       <c r="C4"/>
-      <c r="E4" s="11">
+      <c r="E4" s="7">
         <f>E3*2+E3</f>
         <v>4500</v>
       </c>
@@ -564,8 +561,8 @@
       </c>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" s="11">
-        <f t="shared" ref="I4:I12" si="2">I3*1+I3</f>
+      <c r="I4" s="10">
+        <f t="shared" ref="I4:I20" si="2">I3*1+I3</f>
         <v>2000</v>
       </c>
       <c r="J4" s="6">
@@ -575,16 +572,16 @@
       <c r="K4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <f>A4*3</f>
         <v>24000</v>
       </c>
-      <c r="B5" s="10">
+      <c r="B5" s="6">
         <f t="shared" si="0"/>
         <v>384000000</v>
       </c>
       <c r="C5"/>
-      <c r="E5" s="11">
+      <c r="E5" s="7">
         <f>E4*2+E4</f>
         <v>13500</v>
       </c>
@@ -594,7 +591,7 @@
       </c>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5" s="11">
+      <c r="I5" s="10">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
@@ -613,17 +610,17 @@
         <f t="shared" si="0"/>
         <v>1152000000</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="7">
         <f>E5*2</f>
         <v>27000</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="6">
         <f t="shared" si="1"/>
         <v>432000000</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" s="11">
+      <c r="I6" s="10">
         <f t="shared" si="2"/>
         <v>8000</v>
       </c>
@@ -634,11 +631,11 @@
       <c r="K6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7" s="3">
         <f>A6*3</f>
         <v>216000</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="12">
         <f t="shared" si="0"/>
         <v>3456000000</v>
       </c>
@@ -646,7 +643,7 @@
         <v>2</v>
       </c>
       <c r="E7" s="2">
-        <f t="shared" ref="E7:E9" si="4">E6*2</f>
+        <f t="shared" ref="E7:E19" si="4">E6*2</f>
         <v>54000</v>
       </c>
       <c r="F7" s="6">
@@ -655,7 +652,7 @@
       </c>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <f t="shared" si="2"/>
         <v>16000</v>
       </c>
@@ -666,8 +663,14 @@
       <c r="K7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="2">
+        <f t="shared" ref="A8:A14" si="5">A7*3</f>
+        <v>648000</v>
+      </c>
+      <c r="B8" s="6">
+        <f t="shared" ref="B8:B14" si="6">A8*16000</f>
+        <v>10368000000</v>
+      </c>
       <c r="C8" s="8"/>
       <c r="E8" s="2">
         <f t="shared" si="4"/>
@@ -679,7 +682,7 @@
       </c>
       <c r="G8" s="8"/>
       <c r="H8"/>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <f t="shared" si="2"/>
         <v>32000</v>
       </c>
@@ -690,14 +693,20 @@
       <c r="K8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="2">
+        <f t="shared" si="5"/>
+        <v>1944000</v>
+      </c>
+      <c r="B9" s="6">
+        <f t="shared" si="6"/>
+        <v>31104000000</v>
+      </c>
       <c r="C9" s="8"/>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <f t="shared" si="4"/>
         <v>216000</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="12">
         <f t="shared" si="1"/>
         <v>3456000000</v>
       </c>
@@ -705,7 +714,7 @@
         <v>3</v>
       </c>
       <c r="H9"/>
-      <c r="I9" s="11">
+      <c r="I9" s="10">
         <f t="shared" si="2"/>
         <v>64000</v>
       </c>
@@ -716,8 +725,23 @@
       <c r="K9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-      <c r="I10" s="11">
+      <c r="A10" s="2">
+        <f t="shared" si="5"/>
+        <v>5832000</v>
+      </c>
+      <c r="B10" s="6">
+        <f t="shared" si="6"/>
+        <v>93312000000</v>
+      </c>
+      <c r="E10" s="2">
+        <f t="shared" si="4"/>
+        <v>432000</v>
+      </c>
+      <c r="F10" s="6">
+        <f t="shared" ref="F10:F17" si="7">E10*16000</f>
+        <v>6912000000</v>
+      </c>
+      <c r="I10" s="10">
         <f t="shared" si="2"/>
         <v>128000</v>
       </c>
@@ -727,8 +751,24 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <f t="shared" si="5"/>
+        <v>17496000</v>
+      </c>
+      <c r="B11" s="6">
+        <f t="shared" si="6"/>
+        <v>279936000000</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="4"/>
+        <v>864000</v>
+      </c>
+      <c r="F11" s="6">
+        <f t="shared" si="7"/>
+        <v>13824000000</v>
+      </c>
       <c r="G11" s="8"/>
-      <c r="I11" s="11">
+      <c r="I11" s="10">
         <f t="shared" si="2"/>
         <v>256000</v>
       </c>
@@ -738,16 +778,248 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <f t="shared" si="5"/>
+        <v>52488000</v>
+      </c>
+      <c r="B12" s="6">
+        <f t="shared" si="6"/>
+        <v>839808000000</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" si="4"/>
+        <v>1728000</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="7"/>
+        <v>27648000000</v>
+      </c>
       <c r="I12" s="11">
         <f t="shared" si="2"/>
         <v>512000</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="12">
         <f t="shared" si="3"/>
         <v>8192000000</v>
       </c>
       <c r="K12" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <f t="shared" si="5"/>
+        <v>157464000</v>
+      </c>
+      <c r="B13" s="6">
+        <f t="shared" si="6"/>
+        <v>2519424000000</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" si="4"/>
+        <v>3456000</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="7"/>
+        <v>55296000000</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="2"/>
+        <v>1024000</v>
+      </c>
+      <c r="J13" s="6">
+        <f t="shared" ref="J13:J18" si="8">I13*16000</f>
+        <v>16384000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <f t="shared" si="5"/>
+        <v>472392000</v>
+      </c>
+      <c r="B14" s="6">
+        <f t="shared" si="6"/>
+        <v>7558272000000</v>
+      </c>
+      <c r="E14" s="2">
+        <f t="shared" si="4"/>
+        <v>6912000</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="7"/>
+        <v>110592000000</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="2"/>
+        <v>2048000</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="8"/>
+        <v>32768000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <f t="shared" ref="A15" si="9">A14*3</f>
+        <v>1417176000</v>
+      </c>
+      <c r="B15" s="6">
+        <f t="shared" ref="B15" si="10">A15*16000</f>
+        <v>22674816000000</v>
+      </c>
+      <c r="E15" s="2">
+        <f t="shared" si="4"/>
+        <v>13824000</v>
+      </c>
+      <c r="F15" s="6">
+        <f t="shared" si="7"/>
+        <v>221184000000</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="2"/>
+        <v>4096000</v>
+      </c>
+      <c r="J15" s="6">
+        <f t="shared" si="8"/>
+        <v>65536000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <f t="shared" ref="A16:A17" si="11">A15*3</f>
+        <v>4251528000</v>
+      </c>
+      <c r="B16" s="6">
+        <f t="shared" ref="B16:B17" si="12">A16*16000</f>
+        <v>68024448000000</v>
+      </c>
+      <c r="E16" s="2">
+        <f t="shared" si="4"/>
+        <v>27648000</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="7"/>
+        <v>442368000000</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="2"/>
+        <v>8192000</v>
+      </c>
+      <c r="J16" s="6">
+        <f t="shared" si="8"/>
+        <v>131072000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <f t="shared" si="11"/>
+        <v>12754584000</v>
+      </c>
+      <c r="B17" s="12">
+        <f t="shared" si="12"/>
+        <v>204073344000000</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="2">
+        <f t="shared" si="4"/>
+        <v>55296000</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="7"/>
+        <v>884736000000</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="2"/>
+        <v>16384000</v>
+      </c>
+      <c r="J17" s="6">
+        <f t="shared" si="8"/>
+        <v>262144000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="2">
+        <f t="shared" si="4"/>
+        <v>110592000</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" ref="F18:F19" si="13">E18*16000</f>
+        <v>1769472000000</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="2"/>
+        <v>32768000</v>
+      </c>
+      <c r="J18" s="6">
+        <f t="shared" si="8"/>
+        <v>524288000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E19" s="3">
+        <f t="shared" si="4"/>
+        <v>221184000</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="13"/>
+        <v>3538944000000</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="2"/>
+        <v>65536000</v>
+      </c>
+      <c r="J19" s="6">
+        <f t="shared" ref="J19" si="14">I19*16000</f>
+        <v>1048576000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="G20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" s="10">
+        <f>I19*1+I19</f>
+        <v>131072000</v>
+      </c>
+      <c r="J20" s="6">
+        <f>I20*16000</f>
+        <v>2097152000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="10">
+        <f t="shared" ref="I21:I22" si="15">I20*1+I20</f>
+        <v>262144000</v>
+      </c>
+      <c r="J21" s="6">
+        <f t="shared" ref="J21:J22" si="16">I21*16000</f>
+        <v>4194304000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I22" s="11">
+        <f t="shared" si="15"/>
+        <v>524288000</v>
+      </c>
+      <c r="J22" s="12">
+        <f t="shared" si="16"/>
+        <v>8388608000000</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Compunding.xlsx
+++ b/Compunding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\learning-excel-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608E3E45-68BA-4420-B1E0-6720DB90657B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1207C7-05F1-40C9-9D46-D4F7AA3C752C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2E429BD7-BC5D-4EC3-A067-11C4B75E8339}"/>
   </bookViews>
@@ -34,33 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
-    <t>2 Tahun target 3x</t>
+    <t>20x</t>
   </si>
   <si>
-    <t>3 Tahun target 2x</t>
+    <t>16x</t>
   </si>
   <si>
-    <t>5x</t>
+    <t>5 Tahun target 3x</t>
   </si>
   <si>
-    <t>7x</t>
+    <t>5 Tahun target 2x</t>
   </si>
   <si>
-    <t>10x</t>
-  </si>
-  <si>
-    <t>4 Tahun target 1x</t>
-  </si>
-  <si>
-    <t>15x</t>
-  </si>
-  <si>
-    <t>17x</t>
-  </si>
-  <si>
-    <t>20x</t>
+    <t>6 Tahun target 1x + Before</t>
   </si>
 </sst>
 </file>
@@ -122,22 +110,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -453,573 +437,555 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FA1DC7-A747-45FA-8946-FAE196DCECB3}">
-  <dimension ref="A1:K23"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C6" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="35.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="18.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="23.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" style="1" customWidth="1"/>
     <col min="8" max="8" width="9.140625" style="1"/>
-    <col min="9" max="9" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="E1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="9"/>
-      <c r="I1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="9"/>
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8"/>
+      <c r="I1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J1" s="8"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="A2" s="2">
         <v>500</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="3">
         <f>A2*16000</f>
         <v>8000000</v>
       </c>
       <c r="C2"/>
-      <c r="E2" s="4">
+      <c r="E2" s="2">
         <v>500</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <f>E2*16000</f>
         <v>8000000</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="2">
         <v>500</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="3">
         <f>I2*16000</f>
         <v>8000000</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
-        <f>A2*3+A2</f>
-        <v>2000</v>
-      </c>
-      <c r="B3" s="6">
-        <f t="shared" ref="B3:B7" si="0">A3*16000</f>
-        <v>32000000</v>
+      <c r="A3" s="5">
+        <f>A2*3</f>
+        <v>1500</v>
+      </c>
+      <c r="B3" s="4">
+        <f>A3*16000</f>
+        <v>24000000</v>
       </c>
       <c r="C3"/>
-      <c r="E3" s="7">
-        <f>E2*2+E2</f>
-        <v>1500</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="E3" s="5">
+        <f>E2*2</f>
+        <v>1000</v>
+      </c>
+      <c r="F3" s="4">
         <f>E3*16000</f>
-        <v>24000000</v>
+        <v>16000000</v>
       </c>
       <c r="G3"/>
-      <c r="I3" s="10">
-        <f>I2*1+I2</f>
+      <c r="I3" s="7">
+        <f>(I2*1)+I2</f>
         <v>1000</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="4">
         <f>I3*16000</f>
         <v>16000000</v>
       </c>
       <c r="K3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
-        <f>A3*3+A3</f>
-        <v>8000</v>
-      </c>
-      <c r="B4" s="6">
-        <f t="shared" si="0"/>
-        <v>128000000</v>
+      <c r="A4" s="5">
+        <f t="shared" ref="A4:A15" si="0">A3*3</f>
+        <v>4500</v>
+      </c>
+      <c r="B4" s="4">
+        <f t="shared" ref="B4:B18" si="1">A4*16000</f>
+        <v>72000000</v>
       </c>
       <c r="C4"/>
-      <c r="E4" s="7">
-        <f>E3*2+E3</f>
-        <v>4500</v>
-      </c>
-      <c r="F4" s="6">
-        <f t="shared" ref="F4:F9" si="1">E4*16000</f>
-        <v>72000000</v>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E17" si="2">E3*2</f>
+        <v>2000</v>
+      </c>
+      <c r="F4" s="4">
+        <f t="shared" ref="F4:F18" si="3">E4*16000</f>
+        <v>32000000</v>
       </c>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4" s="10">
-        <f t="shared" ref="I4:I20" si="2">I3*1+I3</f>
+      <c r="I4" s="7">
+        <f t="shared" ref="I4:I17" si="4">(I3*1)+I3</f>
         <v>2000</v>
       </c>
-      <c r="J4" s="6">
-        <f t="shared" ref="J4:J12" si="3">I4*16000</f>
+      <c r="J4" s="4">
+        <f t="shared" ref="J4:J22" si="5">I4*16000</f>
         <v>32000000</v>
       </c>
       <c r="K4"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="7">
-        <f>A4*3</f>
-        <v>24000</v>
-      </c>
-      <c r="B5" s="6">
-        <f t="shared" si="0"/>
-        <v>384000000</v>
+      <c r="A5" s="5">
+        <f t="shared" si="0"/>
+        <v>13500</v>
+      </c>
+      <c r="B5" s="4">
+        <f t="shared" si="1"/>
+        <v>216000000</v>
       </c>
       <c r="C5"/>
-      <c r="E5" s="7">
-        <f>E4*2+E4</f>
-        <v>13500</v>
-      </c>
-      <c r="F5" s="6">
-        <f t="shared" si="1"/>
-        <v>216000000</v>
+      <c r="E5" s="5">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+      <c r="F5" s="4">
+        <f t="shared" si="3"/>
+        <v>64000000</v>
       </c>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5" s="10">
-        <f t="shared" si="2"/>
+      <c r="I5" s="7">
+        <f t="shared" si="4"/>
         <v>4000</v>
       </c>
-      <c r="J5" s="6">
-        <f t="shared" si="3"/>
+      <c r="J5" s="4">
+        <f t="shared" si="5"/>
         <v>64000000</v>
       </c>
       <c r="K5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="7">
-        <f>A5*3</f>
-        <v>72000</v>
-      </c>
-      <c r="B6" s="6">
-        <f t="shared" si="0"/>
-        <v>1152000000</v>
-      </c>
-      <c r="E6" s="7">
-        <f>E5*2</f>
-        <v>27000</v>
-      </c>
-      <c r="F6" s="6">
-        <f t="shared" si="1"/>
-        <v>432000000</v>
+      <c r="A6" s="5">
+        <f t="shared" si="0"/>
+        <v>40500</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="1"/>
+        <v>648000000</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="2"/>
+        <v>8000</v>
+      </c>
+      <c r="F6" s="4">
+        <f t="shared" si="3"/>
+        <v>128000000</v>
       </c>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6" s="10">
-        <f t="shared" si="2"/>
+      <c r="I6" s="7">
+        <f t="shared" si="4"/>
         <v>8000</v>
       </c>
-      <c r="J6" s="6">
-        <f t="shared" si="3"/>
+      <c r="J6" s="4">
+        <f t="shared" si="5"/>
         <v>128000000</v>
       </c>
       <c r="K6"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <f>A6*3</f>
-        <v>216000</v>
-      </c>
-      <c r="B7" s="12">
-        <f t="shared" si="0"/>
-        <v>3456000000</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" ref="E7:E19" si="4">E6*2</f>
-        <v>54000</v>
-      </c>
-      <c r="F7" s="6">
-        <f t="shared" si="1"/>
-        <v>864000000</v>
+      <c r="A7" s="5">
+        <f t="shared" si="0"/>
+        <v>121500</v>
+      </c>
+      <c r="B7" s="4">
+        <f t="shared" si="1"/>
+        <v>1944000000</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="E7" s="5">
+        <f>E6*2</f>
+        <v>16000</v>
+      </c>
+      <c r="F7" s="4">
+        <f t="shared" si="3"/>
+        <v>256000000</v>
       </c>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7" s="10">
-        <f t="shared" si="2"/>
+      <c r="I7" s="7">
+        <f t="shared" si="4"/>
         <v>16000</v>
       </c>
-      <c r="J7" s="6">
-        <f t="shared" si="3"/>
+      <c r="J7" s="4">
+        <f t="shared" si="5"/>
         <v>256000000</v>
       </c>
       <c r="K7"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <f t="shared" ref="A8:A14" si="5">A7*3</f>
-        <v>648000</v>
-      </c>
-      <c r="B8" s="6">
-        <f t="shared" ref="B8:B14" si="6">A8*16000</f>
-        <v>10368000000</v>
-      </c>
-      <c r="C8" s="8"/>
-      <c r="E8" s="2">
-        <f t="shared" si="4"/>
-        <v>108000</v>
-      </c>
-      <c r="F8" s="6">
-        <f t="shared" si="1"/>
-        <v>1728000000</v>
-      </c>
-      <c r="G8" s="8"/>
+      <c r="A8" s="5">
+        <f t="shared" si="0"/>
+        <v>364500</v>
+      </c>
+      <c r="B8" s="4">
+        <f t="shared" si="1"/>
+        <v>5832000000</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="E8" s="5">
+        <f t="shared" si="2"/>
+        <v>32000</v>
+      </c>
+      <c r="F8" s="4">
+        <f t="shared" si="3"/>
+        <v>512000000</v>
+      </c>
+      <c r="G8" s="6"/>
       <c r="H8"/>
-      <c r="I8" s="10">
-        <f t="shared" si="2"/>
+      <c r="I8" s="7">
+        <f t="shared" si="4"/>
         <v>32000</v>
       </c>
-      <c r="J8" s="6">
-        <f t="shared" si="3"/>
+      <c r="J8" s="4">
+        <f t="shared" si="5"/>
         <v>512000000</v>
       </c>
       <c r="K8"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <f t="shared" si="5"/>
-        <v>1944000</v>
-      </c>
-      <c r="B9" s="6">
-        <f t="shared" si="6"/>
-        <v>31104000000</v>
-      </c>
-      <c r="C9" s="8"/>
-      <c r="E9" s="3">
-        <f t="shared" si="4"/>
-        <v>216000</v>
-      </c>
-      <c r="F9" s="12">
-        <f t="shared" si="1"/>
-        <v>3456000000</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>3</v>
-      </c>
+      <c r="A9" s="5">
+        <f t="shared" si="0"/>
+        <v>1093500</v>
+      </c>
+      <c r="B9" s="4">
+        <f t="shared" si="1"/>
+        <v>17496000000</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="E9" s="5">
+        <f t="shared" si="2"/>
+        <v>64000</v>
+      </c>
+      <c r="F9" s="4">
+        <f t="shared" si="3"/>
+        <v>1024000000</v>
+      </c>
+      <c r="G9" s="6"/>
       <c r="H9"/>
-      <c r="I9" s="10">
-        <f t="shared" si="2"/>
+      <c r="I9" s="7">
+        <f t="shared" si="4"/>
         <v>64000</v>
       </c>
-      <c r="J9" s="6">
-        <f t="shared" si="3"/>
+      <c r="J9" s="4">
+        <f t="shared" si="5"/>
         <v>1024000000</v>
       </c>
       <c r="K9"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <f t="shared" si="5"/>
-        <v>5832000</v>
-      </c>
-      <c r="B10" s="6">
-        <f t="shared" si="6"/>
-        <v>93312000000</v>
-      </c>
-      <c r="E10" s="2">
-        <f t="shared" si="4"/>
-        <v>432000</v>
-      </c>
-      <c r="F10" s="6">
-        <f t="shared" ref="F10:F17" si="7">E10*16000</f>
-        <v>6912000000</v>
-      </c>
-      <c r="I10" s="10">
+      <c r="A10" s="5">
+        <f t="shared" si="0"/>
+        <v>3280500</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="1"/>
+        <v>52488000000</v>
+      </c>
+      <c r="E10" s="5">
         <f t="shared" si="2"/>
         <v>128000</v>
       </c>
-      <c r="J10" s="6">
+      <c r="F10" s="4">
         <f t="shared" si="3"/>
         <v>2048000000</v>
       </c>
+      <c r="I10" s="7">
+        <f t="shared" si="4"/>
+        <v>128000</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="5"/>
+        <v>2048000000</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <f t="shared" si="5"/>
-        <v>17496000</v>
-      </c>
-      <c r="B11" s="6">
-        <f t="shared" si="6"/>
-        <v>279936000000</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="4"/>
-        <v>864000</v>
-      </c>
-      <c r="F11" s="6">
-        <f t="shared" si="7"/>
-        <v>13824000000</v>
-      </c>
-      <c r="G11" s="8"/>
-      <c r="I11" s="10">
+      <c r="A11" s="5">
+        <f t="shared" si="0"/>
+        <v>9841500</v>
+      </c>
+      <c r="B11" s="4">
+        <f t="shared" si="1"/>
+        <v>157464000000</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="2"/>
         <v>256000</v>
       </c>
-      <c r="J11" s="6">
+      <c r="F11" s="4">
         <f t="shared" si="3"/>
         <v>4096000000</v>
       </c>
+      <c r="G11" s="6"/>
+      <c r="I11" s="7">
+        <f t="shared" si="4"/>
+        <v>256000</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" si="5"/>
+        <v>4096000000</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <f t="shared" si="5"/>
-        <v>52488000</v>
-      </c>
-      <c r="B12" s="6">
-        <f t="shared" si="6"/>
-        <v>839808000000</v>
-      </c>
-      <c r="E12" s="2">
-        <f t="shared" si="4"/>
-        <v>1728000</v>
-      </c>
-      <c r="F12" s="6">
-        <f t="shared" si="7"/>
-        <v>27648000000</v>
-      </c>
-      <c r="I12" s="11">
+      <c r="A12" s="5">
+        <f t="shared" si="0"/>
+        <v>29524500</v>
+      </c>
+      <c r="B12" s="4">
+        <f t="shared" si="1"/>
+        <v>472392000000</v>
+      </c>
+      <c r="E12" s="5">
         <f t="shared" si="2"/>
         <v>512000</v>
       </c>
-      <c r="J12" s="12">
+      <c r="F12" s="4">
         <f t="shared" si="3"/>
         <v>8192000000</v>
       </c>
-      <c r="K12" s="1" t="s">
-        <v>4</v>
+      <c r="I12" s="7">
+        <f t="shared" si="4"/>
+        <v>512000</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" si="5"/>
+        <v>8192000000</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <f t="shared" si="5"/>
-        <v>157464000</v>
-      </c>
-      <c r="B13" s="6">
-        <f t="shared" si="6"/>
-        <v>2519424000000</v>
-      </c>
-      <c r="E13" s="2">
-        <f t="shared" si="4"/>
-        <v>3456000</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="7"/>
-        <v>55296000000</v>
-      </c>
-      <c r="I13" s="10">
+      <c r="A13" s="5">
+        <f t="shared" si="0"/>
+        <v>88573500</v>
+      </c>
+      <c r="B13" s="4">
+        <f t="shared" si="1"/>
+        <v>1417176000000</v>
+      </c>
+      <c r="E13" s="5">
         <f t="shared" si="2"/>
         <v>1024000</v>
       </c>
-      <c r="J13" s="6">
-        <f t="shared" ref="J13:J18" si="8">I13*16000</f>
+      <c r="F13" s="4">
+        <f t="shared" si="3"/>
         <v>16384000000</v>
       </c>
+      <c r="I13" s="7">
+        <f t="shared" si="4"/>
+        <v>1024000</v>
+      </c>
+      <c r="J13" s="4">
+        <f t="shared" si="5"/>
+        <v>16384000000</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <f t="shared" si="5"/>
-        <v>472392000</v>
-      </c>
-      <c r="B14" s="6">
-        <f t="shared" si="6"/>
-        <v>7558272000000</v>
-      </c>
-      <c r="E14" s="2">
-        <f t="shared" si="4"/>
-        <v>6912000</v>
-      </c>
-      <c r="F14" s="6">
-        <f t="shared" si="7"/>
-        <v>110592000000</v>
-      </c>
-      <c r="I14" s="10">
+      <c r="A14" s="5">
+        <f t="shared" si="0"/>
+        <v>265720500</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="1"/>
+        <v>4251528000000</v>
+      </c>
+      <c r="E14" s="5">
         <f t="shared" si="2"/>
         <v>2048000</v>
       </c>
-      <c r="J14" s="6">
+      <c r="F14" s="4">
+        <f t="shared" si="3"/>
+        <v>32768000000</v>
+      </c>
+      <c r="I14" s="7">
+        <f t="shared" si="4"/>
+        <v>2048000</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="5"/>
+        <v>32768000000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <f t="shared" si="0"/>
+        <v>797161500</v>
+      </c>
+      <c r="B15" s="4">
+        <f t="shared" si="1"/>
+        <v>12754584000000</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="2"/>
+        <v>4096000</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="3"/>
+        <v>65536000000</v>
+      </c>
+      <c r="I15" s="7">
+        <f t="shared" si="4"/>
+        <v>4096000</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="5"/>
+        <v>65536000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <f>A15*3</f>
+        <v>2391484500</v>
+      </c>
+      <c r="B16" s="4">
+        <f t="shared" si="1"/>
+        <v>38263752000000</v>
+      </c>
+      <c r="E16" s="5">
+        <f t="shared" si="2"/>
+        <v>8192000</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="3"/>
+        <v>131072000000</v>
+      </c>
+      <c r="I16" s="7">
+        <f t="shared" si="4"/>
+        <v>8192000</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="5"/>
+        <v>131072000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
+        <f>A16*3</f>
+        <v>7174453500</v>
+      </c>
+      <c r="B17" s="4">
+        <f t="shared" si="1"/>
+        <v>114791256000000</v>
+      </c>
+      <c r="E17" s="5">
+        <f t="shared" si="2"/>
+        <v>16384000</v>
+      </c>
+      <c r="F17" s="4">
+        <f t="shared" si="3"/>
+        <v>262144000000</v>
+      </c>
+      <c r="I17" s="7">
+        <f t="shared" si="4"/>
+        <v>16384000</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="5"/>
+        <v>262144000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <f t="shared" ref="A18" si="6">A17*3</f>
+        <v>21523360500</v>
+      </c>
+      <c r="B18" s="4">
+        <f t="shared" si="1"/>
+        <v>344373768000000</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <f t="shared" ref="E18" si="7">E17*2</f>
+        <v>32768000</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="3"/>
+        <v>524288000000</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I18" s="7">
+        <f t="shared" ref="I18:I22" si="8">(I17*1)+I17</f>
+        <v>32768000</v>
+      </c>
+      <c r="J18" s="4">
+        <f t="shared" si="5"/>
+        <v>524288000000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I19" s="7">
         <f t="shared" si="8"/>
-        <v>32768000000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <f t="shared" ref="A15" si="9">A14*3</f>
-        <v>1417176000</v>
-      </c>
-      <c r="B15" s="6">
-        <f t="shared" ref="B15" si="10">A15*16000</f>
-        <v>22674816000000</v>
-      </c>
-      <c r="E15" s="2">
-        <f t="shared" si="4"/>
-        <v>13824000</v>
-      </c>
-      <c r="F15" s="6">
-        <f t="shared" si="7"/>
-        <v>221184000000</v>
-      </c>
-      <c r="I15" s="10">
-        <f t="shared" si="2"/>
-        <v>4096000</v>
-      </c>
-      <c r="J15" s="6">
+        <v>65536000</v>
+      </c>
+      <c r="J19" s="4">
+        <f t="shared" si="5"/>
+        <v>1048576000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I20" s="7">
         <f t="shared" si="8"/>
-        <v>65536000000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <f t="shared" ref="A16:A17" si="11">A15*3</f>
-        <v>4251528000</v>
-      </c>
-      <c r="B16" s="6">
-        <f t="shared" ref="B16:B17" si="12">A16*16000</f>
-        <v>68024448000000</v>
-      </c>
-      <c r="E16" s="2">
-        <f t="shared" si="4"/>
-        <v>27648000</v>
-      </c>
-      <c r="F16" s="6">
-        <f t="shared" si="7"/>
-        <v>442368000000</v>
-      </c>
-      <c r="I16" s="10">
-        <f t="shared" si="2"/>
-        <v>8192000</v>
-      </c>
-      <c r="J16" s="6">
+        <v>131072000</v>
+      </c>
+      <c r="J20" s="4">
+        <f t="shared" si="5"/>
+        <v>2097152000000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I21" s="7">
         <f t="shared" si="8"/>
-        <v>131072000000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
-        <f t="shared" si="11"/>
-        <v>12754584000</v>
-      </c>
-      <c r="B17" s="12">
-        <f t="shared" si="12"/>
-        <v>204073344000000</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="2">
-        <f t="shared" si="4"/>
-        <v>55296000</v>
-      </c>
-      <c r="F17" s="6">
-        <f t="shared" si="7"/>
-        <v>884736000000</v>
-      </c>
-      <c r="I17" s="10">
-        <f t="shared" si="2"/>
-        <v>16384000</v>
-      </c>
-      <c r="J17" s="6">
+        <v>262144000</v>
+      </c>
+      <c r="J21" s="4">
+        <f t="shared" si="5"/>
+        <v>4194304000000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I22" s="7">
         <f t="shared" si="8"/>
-        <v>262144000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E18" s="2">
-        <f t="shared" si="4"/>
-        <v>110592000</v>
-      </c>
-      <c r="F18" s="6">
-        <f t="shared" ref="F18:F19" si="13">E18*16000</f>
-        <v>1769472000000</v>
-      </c>
-      <c r="I18" s="10">
-        <f t="shared" si="2"/>
-        <v>32768000</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" si="8"/>
-        <v>524288000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E19" s="3">
-        <f t="shared" si="4"/>
-        <v>221184000</v>
-      </c>
-      <c r="F19" s="12">
-        <f t="shared" si="13"/>
-        <v>3538944000000</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I19" s="10">
-        <f t="shared" si="2"/>
-        <v>65536000</v>
-      </c>
-      <c r="J19" s="6">
-        <f t="shared" ref="J19" si="14">I19*16000</f>
-        <v>1048576000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="G20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I20" s="10">
-        <f>I19*1+I19</f>
-        <v>131072000</v>
-      </c>
-      <c r="J20" s="6">
-        <f>I20*16000</f>
-        <v>2097152000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I21" s="10">
-        <f t="shared" ref="I21:I22" si="15">I20*1+I20</f>
-        <v>262144000</v>
-      </c>
-      <c r="J21" s="6">
-        <f t="shared" ref="J21:J22" si="16">I21*16000</f>
-        <v>4194304000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I22" s="11">
-        <f t="shared" si="15"/>
         <v>524288000</v>
       </c>
-      <c r="J22" s="12">
-        <f t="shared" si="16"/>
+      <c r="J22" s="4">
+        <f t="shared" si="5"/>
         <v>8388608000000</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K23" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Compunding.xlsx
+++ b/Compunding.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\learning-excel-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1207C7-05F1-40C9-9D46-D4F7AA3C752C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F391FB5A-C253-483B-893C-B8AB4E228CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2E429BD7-BC5D-4EC3-A067-11C4B75E8339}"/>
   </bookViews>
@@ -36,19 +36,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
-    <t>20x</t>
+    <t>14x</t>
   </si>
   <si>
-    <t>16x</t>
+    <t>9x</t>
   </si>
   <si>
-    <t>5 Tahun target 3x</t>
+    <t>4 Tahun target 2x</t>
   </si>
   <si>
-    <t>5 Tahun target 2x</t>
+    <t>4 Tahun target 1x + Compunding</t>
   </si>
   <si>
-    <t>6 Tahun target 1x + Before</t>
+    <t>3 Tahun target 3x</t>
   </si>
 </sst>
 </file>
@@ -439,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FA1DC7-A747-45FA-8946-FAE196DCECB3}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,15 +460,15 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B1" s="8"/>
       <c r="E1" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1" s="8"/>
       <c r="I1" s="8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J1" s="8"/>
     </row>
@@ -527,16 +527,16 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <f t="shared" ref="A4:A15" si="0">A3*3</f>
+        <f t="shared" ref="A4:A11" si="0">A3*3</f>
         <v>4500</v>
       </c>
       <c r="B4" s="4">
-        <f t="shared" ref="B4:B18" si="1">A4*16000</f>
+        <f t="shared" ref="B4:B11" si="1">A4*16000</f>
         <v>72000000</v>
       </c>
       <c r="C4"/>
       <c r="E4" s="5">
-        <f t="shared" ref="E4:E17" si="2">E3*2</f>
+        <f t="shared" ref="E4:E16" si="2">E3*2</f>
         <v>2000</v>
       </c>
       <c r="F4" s="4">
@@ -546,7 +546,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4" s="7">
-        <f t="shared" ref="I4:I17" si="4">(I3*1)+I3</f>
+        <f t="shared" ref="I4:I16" si="4">(I3*1)+I3</f>
         <v>2000</v>
       </c>
       <c r="J4" s="4">
@@ -739,6 +739,9 @@
         <f t="shared" si="1"/>
         <v>157464000000</v>
       </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="E11" s="5">
         <f t="shared" si="2"/>
         <v>256000</v>
@@ -758,14 +761,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="5">
-        <f t="shared" si="0"/>
-        <v>29524500</v>
-      </c>
-      <c r="B12" s="4">
-        <f t="shared" si="1"/>
-        <v>472392000000</v>
-      </c>
+      <c r="A12" s="5"/>
+      <c r="B12" s="4"/>
       <c r="E12" s="5">
         <f t="shared" si="2"/>
         <v>512000</v>
@@ -784,14 +781,8 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="5">
-        <f t="shared" si="0"/>
-        <v>88573500</v>
-      </c>
-      <c r="B13" s="4">
-        <f t="shared" si="1"/>
-        <v>1417176000000</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
       <c r="E13" s="5">
         <f t="shared" si="2"/>
         <v>1024000</v>
@@ -810,14 +801,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="5">
-        <f t="shared" si="0"/>
-        <v>265720500</v>
-      </c>
-      <c r="B14" s="4">
-        <f t="shared" si="1"/>
-        <v>4251528000000</v>
-      </c>
+      <c r="A14" s="5"/>
+      <c r="B14" s="4"/>
       <c r="E14" s="5">
         <f t="shared" si="2"/>
         <v>2048000</v>
@@ -836,14 +821,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="5">
-        <f t="shared" si="0"/>
-        <v>797161500</v>
-      </c>
-      <c r="B15" s="4">
-        <f t="shared" si="1"/>
-        <v>12754584000000</v>
-      </c>
+      <c r="A15" s="5"/>
+      <c r="B15" s="4"/>
       <c r="E15" s="5">
         <f t="shared" si="2"/>
         <v>4096000</v>
@@ -862,14 +841,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="5">
-        <f>A15*3</f>
-        <v>2391484500</v>
-      </c>
-      <c r="B16" s="4">
-        <f t="shared" si="1"/>
-        <v>38263752000000</v>
-      </c>
+      <c r="A16" s="5"/>
+      <c r="B16" s="4"/>
       <c r="E16" s="5">
         <f t="shared" si="2"/>
         <v>8192000</v>
@@ -878,6 +851,9 @@
         <f t="shared" si="3"/>
         <v>131072000000</v>
       </c>
+      <c r="G16" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="I16" s="7">
         <f t="shared" si="4"/>
         <v>8192000</v>
@@ -886,107 +862,41 @@
         <f t="shared" si="5"/>
         <v>131072000000</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="5">
-        <f>A16*3</f>
-        <v>7174453500</v>
-      </c>
-      <c r="B17" s="4">
-        <f t="shared" si="1"/>
-        <v>114791256000000</v>
-      </c>
-      <c r="E17" s="5">
-        <f t="shared" si="2"/>
-        <v>16384000</v>
-      </c>
-      <c r="F17" s="4">
-        <f t="shared" si="3"/>
-        <v>262144000000</v>
-      </c>
-      <c r="I17" s="7">
-        <f t="shared" si="4"/>
-        <v>16384000</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" si="5"/>
-        <v>262144000000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <f t="shared" ref="A18" si="6">A17*3</f>
-        <v>21523360500</v>
-      </c>
-      <c r="B18" s="4">
-        <f t="shared" si="1"/>
-        <v>344373768000000</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E18" s="5">
-        <f t="shared" ref="E18" si="7">E17*2</f>
-        <v>32768000</v>
-      </c>
-      <c r="F18" s="4">
-        <f t="shared" si="3"/>
-        <v>524288000000</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I18" s="7">
-        <f t="shared" ref="I18:I22" si="8">(I17*1)+I17</f>
-        <v>32768000</v>
-      </c>
-      <c r="J18" s="4">
-        <f t="shared" si="5"/>
-        <v>524288000000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I19" s="7">
-        <f t="shared" si="8"/>
-        <v>65536000</v>
-      </c>
-      <c r="J19" s="4">
-        <f t="shared" si="5"/>
-        <v>1048576000000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I20" s="7">
-        <f t="shared" si="8"/>
-        <v>131072000</v>
-      </c>
-      <c r="J20" s="4">
-        <f t="shared" si="5"/>
-        <v>2097152000000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I21" s="7">
-        <f t="shared" si="8"/>
-        <v>262144000</v>
-      </c>
-      <c r="J21" s="4">
-        <f t="shared" si="5"/>
-        <v>4194304000000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I22" s="7">
-        <f t="shared" si="8"/>
-        <v>524288000</v>
-      </c>
-      <c r="J22" s="4">
-        <f t="shared" si="5"/>
-        <v>8388608000000</v>
-      </c>
-      <c r="K22" s="1" t="s">
+      <c r="K16" s="1" t="s">
         <v>0</v>
       </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I19" s="7"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I20" s="7"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I21" s="7"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I22" s="7"/>
+      <c r="J22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
